--- a/BalanceSheet/VLO_bal.xlsx
+++ b/BalanceSheet/VLO_bal.xlsx
@@ -249,10 +249,8 @@
           <t>Cash and Short Term Investments</t>
         </is>
       </c>
-      <c r="B2" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B2" s="0" t="n">
+        <v>2254000000.0</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>3313000000.0</v>
@@ -378,10 +376,8 @@
           <t>Receivables</t>
         </is>
       </c>
-      <c r="B3" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B3" s="0" t="n">
+        <v>9014000000.0</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>6109000000.0</v>
@@ -958,10 +954,8 @@
           <t>Property, Plant, Equpment (Net)</t>
         </is>
       </c>
-      <c r="B7" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B7" s="0" t="n">
+        <v>30379000000.0</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>31593000000.0</v>
@@ -1664,10 +1658,8 @@
           <t>Total non-current assets</t>
         </is>
       </c>
-      <c r="B11" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B11" s="0" t="n">
+        <v>36023000000.0</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>35930000000.0</v>
@@ -1794,7 +1786,7 @@
         </is>
       </c>
       <c r="B12" s="0" t="n">
-        <v>0.0</v>
+        <v>53614000000.0</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>52371000000.0</v>
@@ -1920,10 +1912,8 @@
           <t>Accounts Payable</t>
         </is>
       </c>
-      <c r="B13" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B13" s="0" t="n">
+        <v>9113000000.0</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>6907000000.0</v>
@@ -2049,10 +2039,8 @@
           <t>Accrued Expenses</t>
         </is>
       </c>
-      <c r="B14" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B14" s="0" t="n">
+        <v>1087000000.0</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>994000000.0</v>
@@ -2305,10 +2293,8 @@
           <t>Current Part of Taxes to Pay</t>
         </is>
       </c>
-      <c r="B16" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B16" s="0" t="n">
+        <v>1373000000.0</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>1484000000.0</v>
@@ -3054,10 +3040,8 @@
           <t>Long Term Tax Liability (Deferred)</t>
         </is>
       </c>
-      <c r="B21" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B21" s="0" t="n">
+        <v>5034000000.0</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>5256000000.0</v>
@@ -3184,7 +3168,7 @@
         </is>
       </c>
       <c r="B22" s="0" t="n">
-        <v>0.0</v>
+        <v>3616000000.0</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>2735000000.0</v>
@@ -3310,10 +3294,8 @@
           <t>Total non-current liabilities</t>
         </is>
       </c>
-      <c r="B23" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B23" s="0" t="n">
+        <v>22580000000.0</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>22849000000.0</v>
@@ -3566,10 +3548,8 @@
           <t>Additional Paid In Capital</t>
         </is>
       </c>
-      <c r="B25" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B25" s="0" t="n">
+        <v>6810000000.0</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>6814000000.0</v>
@@ -3695,10 +3675,8 @@
           <t>Common Stock (Net)</t>
         </is>
       </c>
-      <c r="B26" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B26" s="0" t="n">
+        <v>7000000.0</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>7000000.0</v>
@@ -3824,10 +3802,8 @@
           <t>Retained Earnings</t>
         </is>
       </c>
-      <c r="B27" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B27" s="0" t="n">
+        <v>27849000000.0</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>28953000000.0</v>
@@ -3953,10 +3929,8 @@
           <t>Treasury Stock</t>
         </is>
       </c>
-      <c r="B28" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B28" s="0" t="n">
+        <v>15700000000.0</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>15719000000.0</v>
@@ -4336,10 +4310,8 @@
           <t>Shareholders Equity and Liabilities (Total)</t>
         </is>
       </c>
-      <c r="B31" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B31" s="0" t="n">
+        <v>53614000000.0</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>51774000000.0</v>
@@ -4465,10 +4437,8 @@
           <t>Shares (Common)</t>
         </is>
       </c>
-      <c r="B32" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B32" s="0" t="n">
+        <v>408761000.0</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>408405000.0</v>
@@ -4594,10 +4564,8 @@
           <t>Shareholders Equity (Tangible)</t>
         </is>
       </c>
-      <c r="B33" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B33" s="0" t="n">
+        <v>18727000000.0</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>19642000000.0</v>
